--- a/Component Analysis/Embedded Backend.xlsx
+++ b/Component Analysis/Embedded Backend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronclark/Documents/UCT/EEE4113F/EEE4113F_Proj/Component Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07691EA-D073-B14D-B834-B6F99E851979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84430328-21B4-1840-92C7-2C99F8318186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{930919B5-51B7-E647-AFD1-EDD08F276963}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Camera" sheetId="2" r:id="rId2"/>
     <sheet name="Wireless module" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -284,6 +284,90 @@
   </si>
   <si>
     <t>https://www.robofactory.co.za/arduino-modules/90-wireless-transmitter-and-receiver-kit-433mhz-rf.html</t>
+  </si>
+  <si>
+    <t>OV3660</t>
+  </si>
+  <si>
+    <t>ESP DVP</t>
+  </si>
+  <si>
+    <t>https://m5stack.oss-cn-shenzhen.aliyuncs.com/resource/docs/datasheet/unit/OV3660_CSP3_DS_1.3_sida.pdf</t>
+  </si>
+  <si>
+    <t>OV5640</t>
+  </si>
+  <si>
+    <t>1,5V @ 98mA</t>
+  </si>
+  <si>
+    <t>1,5V @ 140mA</t>
+  </si>
+  <si>
+    <t>https://cdn.sparkfun.com/datasheets/Sensors/LightImaging/OV5640_datasheet.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/espressif/esp32-camera</t>
+  </si>
+  <si>
+    <t>Pi NoIR v3</t>
+  </si>
+  <si>
+    <t>PDAF AF</t>
+  </si>
+  <si>
+    <t>27,6?</t>
+  </si>
+  <si>
+    <t>75/120</t>
+  </si>
+  <si>
+    <t>All have same temp rating 0-50ºC</t>
+  </si>
+  <si>
+    <t>https://www.pishop.co.za/store/raspberry-pi-camera-module-3-noir-standard-76-lens</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Pi NoIR v2</t>
+  </si>
+  <si>
+    <t>RPI CSI-2</t>
+  </si>
+  <si>
+    <t>880nm IR light req</t>
+  </si>
+  <si>
+    <t>https://www.okdo.com/wp-content/uploads/2019/03/Pi_NoIR_Camera-Data-Sheet.pdf</t>
+  </si>
+  <si>
+    <t>https://datasheets.raspberrypi.com/camera/camera-module-3-product-brief.pdf</t>
+  </si>
+  <si>
+    <t>Op Temp</t>
+  </si>
+  <si>
+    <t>-20 to 60</t>
+  </si>
+  <si>
+    <t>0 to 50</t>
+  </si>
+  <si>
+    <t>https://www.diyelectronics.co.za/store/cameras/1300-raspberry-pi-noir-camera-v2-modular-camera-with-infrared.html?gad_source=1&amp;gclid=CjwKCAjw8diwBhAbEiwA7i_sJWh91-d1ZX4KfM0q-YRzZ5DI80HQSxw4DGiSotyqT2ywVt1bGEDYZRoCNXEQAvD_BwE</t>
+  </si>
+  <si>
+    <t>https://www.robotics.org.za/ESP32-CAM-OV5640?search=OV5640</t>
+  </si>
+  <si>
+    <t>268 incl ESP</t>
+  </si>
+  <si>
+    <t>AF, req programmer</t>
+  </si>
+  <si>
+    <t>https://www.arducam.com/stm32-cameras-that-support-dcmi/</t>
   </si>
 </sst>
 </file>
@@ -291,7 +375,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;R&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -329,14 +413,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5278BF-D178-B44C-BD1D-DEF5CEC59A05}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -877,7 +962,7 @@
       <c r="G7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -948,202 +1033,361 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB19169-7B23-1E4F-A6D6-08DB48DFF0FB}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>60</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>50</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>15</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>120</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>63</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>240</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>65</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>90</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>66</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>64</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E4">
         <v>60</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>70</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>135</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>69</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>54</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>64</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E6">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>72</v>
       </c>
       <c r="B7">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>480</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>65</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>73</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>64</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E8">
         <v>60</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I9" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>76</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I11" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I12" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>80</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>81</v>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19">
+        <v>3.1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20">
+        <v>66</v>
+      </c>
+      <c r="I20" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3">
+        <v>480</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21">
+        <v>75</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22">
+        <v>11.9</v>
+      </c>
+      <c r="C22" s="3">
+        <v>527</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" t="s">
+        <v>101</v>
+      </c>
+      <c r="L22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1153,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F23F0DA-81DB-2D40-81C0-F00D3B188EA0}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="174" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1198,6 +1442,11 @@
         <v>39</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Component Analysis/Embedded Backend.xlsx
+++ b/Component Analysis/Embedded Backend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronclark/Documents/UCT/EEE4113F/EEE4113F_Proj/Component Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84430328-21B4-1840-92C7-2C99F8318186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF904560-A230-F549-97CA-5AA2E7CC1F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{930919B5-51B7-E647-AFD1-EDD08F276963}"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{930919B5-51B7-E647-AFD1-EDD08F276963}"/>
   </bookViews>
   <sheets>
     <sheet name="Microcontroller" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="129">
   <si>
     <t>Name</t>
   </si>
@@ -368,16 +368,74 @@
   </si>
   <si>
     <t>https://www.arducam.com/stm32-cameras-that-support-dcmi/</t>
+  </si>
+  <si>
+    <t>IR LED</t>
+  </si>
+  <si>
+    <t>Input power</t>
+  </si>
+  <si>
+    <t>Output power</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Wave Length</t>
+  </si>
+  <si>
+    <t>TSAL6400</t>
+  </si>
+  <si>
+    <t>https://www.diyelectronics.co.za/store/5mm/1893-940nm-ir-led-vishay-tsal6400-5mm-package-25deg.html?gad_source=4&amp;gclid=Cj0KCQjwlN6wBhCcARIsAKZvD5iyLSOjjNYEGLjUcQl7zFePpevaCDn7lE93jNvpxxvq0MbetJp8kxEaAuUfEALw_wcB</t>
+  </si>
+  <si>
+    <t>Mount Type</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>https://www.mantech.co.za/ProductInfo.aspx?Item=72M3087</t>
+  </si>
+  <si>
+    <t>SMD 16mm</t>
+  </si>
+  <si>
+    <t>WS-AS2HPL-940</t>
+  </si>
+  <si>
+    <t>Cost/Efficiency</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.za/en/products/detail/xssy/SE03-EMC3838A-B90-3/16164296?utm_adgroup=&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=PMax_Product_All%20Products&amp;utm_term=&amp;productid=16164296&amp;utm_content=&amp;utm_id=go_cmp-18332619487_adg-_ad-__dev-c_ext-_prd-16164296_sig-Cj0KCQjwlN6wBhCcARIsAKZvD5g0w5cpg_Lii0lKCiX6H9gOJnsKiOvHfdllrim80RHc3CtV2rjXB3kaApRfEALw_wcB&amp;gad_source=4&amp;gclid=Cj0KCQjwlN6wBhCcARIsAKZvD5g0w5cpg_Lii0lKCiX6H9gOJnsKiOvHfdllrim80RHc3CtV2rjXB3kaApRfEALw_wcB</t>
+  </si>
+  <si>
+    <t>SMD 3mm</t>
+  </si>
+  <si>
+    <t>SE03-EMC3838A-B90-3</t>
+  </si>
+  <si>
+    <t>https://www.robotics.org.za/IR333C-A?search=IR%20LED</t>
+  </si>
+  <si>
+    <t>https://icgram.com/wp-content/uploads/2020/06/TA6053.pdf</t>
+  </si>
+  <si>
+    <t>https://www.netram.co.za/rf/9437-315mhz-rf-link-kit.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;R&quot;* #,##0.00_);_(&quot;R&quot;* \(#,##0.00\);_(&quot;R&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;R&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -390,6 +448,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -410,10 +475,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -422,9 +489,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -759,7 +833,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1033,16 +1107,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB19169-7B23-1E4F-A6D6-08DB48DFF0FB}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A14" zoomScale="150" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="3"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1389,6 +1467,200 @@
       <c r="F28" t="s">
         <v>95</v>
       </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34">
+        <f>40/1000</f>
+        <v>0.04</v>
+      </c>
+      <c r="C34" s="8">
+        <f>1.6*0.1</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="D34" s="9">
+        <f>B34/C34</f>
+        <v>0.24999999999999994</v>
+      </c>
+      <c r="E34">
+        <v>940</v>
+      </c>
+      <c r="F34">
+        <v>25</v>
+      </c>
+      <c r="G34" s="6">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H34" s="10">
+        <f>G34/D34</f>
+        <v>39.800000000000004</v>
+      </c>
+      <c r="I34" t="s">
+        <v>118</v>
+      </c>
+      <c r="J34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35">
+        <v>0.18</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" ref="D35:D40" si="0">B35/C35</f>
+        <v>0.25714285714285717</v>
+      </c>
+      <c r="E35">
+        <v>940</v>
+      </c>
+      <c r="F35">
+        <v>150</v>
+      </c>
+      <c r="G35" s="6">
+        <v>53</v>
+      </c>
+      <c r="H35" s="10">
+        <f>G35/D35</f>
+        <v>206.11111111111109</v>
+      </c>
+      <c r="I35" t="s">
+        <v>120</v>
+      </c>
+      <c r="J35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c r="J36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>0.09</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D37" s="9">
+        <f>B37/C37</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="E37">
+        <v>875</v>
+      </c>
+      <c r="F37">
+        <v>90</v>
+      </c>
+      <c r="G37" s="6">
+        <f>10/4</f>
+        <v>2.5</v>
+      </c>
+      <c r="H37" s="10">
+        <f>G37/D37</f>
+        <v>2.7777777777777781</v>
+      </c>
+      <c r="I37" t="s">
+        <v>124</v>
+      </c>
+      <c r="J37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C38" s="8"/>
+      <c r="D38" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="10" t="e">
+        <f t="shared" ref="H38:H40" si="1">G38/D38</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C39" s="8"/>
+      <c r="D39" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C40" s="8"/>
+      <c r="D40" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C46" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1397,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F23F0DA-81DB-2D40-81C0-F00D3B188EA0}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="174" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1447,6 +1719,16 @@
         <v>81</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
